--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-14878-top-by-haul.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-14878-top-by-haul.xlsx
@@ -50,7 +50,7 @@
     <t>vlad200</t>
   </si>
   <si>
-    <t>133 ч. 29 мин. 5 сек.</t>
+    <t>133 ч. 29 мин. 05 сек.</t>
   </si>
   <si>
     <t>2</t>
@@ -68,7 +68,7 @@
     <t>паукан</t>
   </si>
   <si>
-    <t>86 ч. 16 мин. 9 сек.</t>
+    <t>86 ч. 16 мин. 09 сек.</t>
   </si>
   <si>
     <t>4</t>
@@ -113,7 +113,7 @@
     <t>VladimirFvR</t>
   </si>
   <si>
-    <t>39 ч. 7 мин. 16 сек.</t>
+    <t>39 ч. 07 мин. 16 сек.</t>
   </si>
   <si>
     <t>9</t>
@@ -140,7 +140,7 @@
     <t>MaestroPain</t>
   </si>
   <si>
-    <t>28 ч. 4 мин. 11 сек.</t>
+    <t>28 ч. 04 мин. 11 сек.</t>
   </si>
   <si>
     <t>12</t>
@@ -158,7 +158,7 @@
     <t>FarWin</t>
   </si>
   <si>
-    <t>25 ч. 23 мин. 9 сек.</t>
+    <t>25 ч. 23 мин. 09 сек.</t>
   </si>
   <si>
     <t>14</t>
@@ -176,7 +176,7 @@
     <t>Feliks_Smetana</t>
   </si>
   <si>
-    <t>21 ч. 8 мин. 10 сек.</t>
+    <t>21 ч. 08 мин. 10 сек.</t>
   </si>
   <si>
     <t>16</t>
@@ -194,7 +194,7 @@
     <t>MarionWed</t>
   </si>
   <si>
-    <t>20 ч. 6 мин. 55 сек.</t>
+    <t>20 ч. 06 мин. 55 сек.</t>
   </si>
   <si>
     <t>18</t>
@@ -203,7 +203,7 @@
     <t>valula</t>
   </si>
   <si>
-    <t>20 ч. 1 мин. 5 сек.</t>
+    <t>20 ч. 01 мин. 05 сек.</t>
   </si>
   <si>
     <t>19</t>
@@ -212,7 +212,7 @@
     <t>Awyra</t>
   </si>
   <si>
-    <t>19 ч. 52 мин. 6 сек.</t>
+    <t>19 ч. 52 мин. 06 сек.</t>
   </si>
   <si>
     <t>20</t>
@@ -239,7 +239,7 @@
     <t>JohnStone</t>
   </si>
   <si>
-    <t>17 ч. 1 мин. 17 сек.</t>
+    <t>17 ч. 01 мин. 17 сек.</t>
   </si>
   <si>
     <t>23</t>
@@ -365,7 +365,7 @@
     <t>juls3n</t>
   </si>
   <si>
-    <t>13 ч. 2 мин. 20 сек.</t>
+    <t>13 ч. 02 мин. 20 сек.</t>
   </si>
   <si>
     <t>37</t>
@@ -374,7 +374,7 @@
     <t>learnToType</t>
   </si>
   <si>
-    <t>13 ч. 1 мин. 10 сек.</t>
+    <t>13 ч. 01 мин. 10 сек.</t>
   </si>
   <si>
     <t>38</t>
@@ -419,7 +419,7 @@
     <t>vl7</t>
   </si>
   <si>
-    <t>12 ч. 8 мин. 37 сек.</t>
+    <t>12 ч. 08 мин. 37 сек.</t>
   </si>
   <si>
     <t>43</t>
@@ -428,7 +428,7 @@
     <t>Хаотический</t>
   </si>
   <si>
-    <t>12 ч. 8 мин. 34 сек.</t>
+    <t>12 ч. 08 мин. 34 сек.</t>
   </si>
   <si>
     <t>44</t>
@@ -473,7 +473,7 @@
     <t>inteltone</t>
   </si>
   <si>
-    <t>11 ч. 30 мин. 3 сек.</t>
+    <t>11 ч. 30 мин. 03 сек.</t>
   </si>
   <si>
     <t>49</t>
@@ -500,7 +500,7 @@
     <t>Phemmer</t>
   </si>
   <si>
-    <t>11 ч. 7 мин. 9 сек.</t>
+    <t>11 ч. 07 мин. 09 сек.</t>
   </si>
   <si>
     <t>52</t>
@@ -509,7 +509,7 @@
     <t>Satory</t>
   </si>
   <si>
-    <t>11 ч. 6 мин. 25 сек.</t>
+    <t>11 ч. 06 мин. 25 сек.</t>
   </si>
   <si>
     <t>53</t>
@@ -518,7 +518,7 @@
     <t>Gal04ka</t>
   </si>
   <si>
-    <t>11 ч. 2 мин. 6 сек.</t>
+    <t>11 ч. 02 мин. 06 сек.</t>
   </si>
   <si>
     <t>54</t>
@@ -527,7 +527,7 @@
     <t>barmaglot</t>
   </si>
   <si>
-    <t>10 ч. 57 мин. 4 сек.</t>
+    <t>10 ч. 57 мин. 04 сек.</t>
   </si>
   <si>
     <t>55</t>
@@ -599,7 +599,7 @@
     <t>yurgen55</t>
   </si>
   <si>
-    <t>10 ч. 30 мин. 4 сек.</t>
+    <t>10 ч. 30 мин. 04 сек.</t>
   </si>
   <si>
     <t>63</t>
@@ -608,7 +608,7 @@
     <t>Asp1ro_</t>
   </si>
   <si>
-    <t>10 ч. 26 мин. 8 сек.</t>
+    <t>10 ч. 26 мин. 08 сек.</t>
   </si>
   <si>
     <t>64</t>
@@ -653,7 +653,7 @@
     <t>Хуля</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 43 сек.</t>
+    <t>10 ч. 04 мин. 43 сек.</t>
   </si>
   <si>
     <t>69</t>
@@ -671,7 +671,7 @@
     <t>Рюша</t>
   </si>
   <si>
-    <t>9 ч. 46 мин. 1 сек.</t>
+    <t>9 ч. 46 мин. 01 сек.</t>
   </si>
   <si>
     <t>71</t>
@@ -716,7 +716,7 @@
     <t>170000</t>
   </si>
   <si>
-    <t>9 ч. 6 мин. 27 сек.</t>
+    <t>9 ч. 06 мин. 27 сек.</t>
   </si>
   <si>
     <t>76</t>
@@ -725,7 +725,7 @@
     <t>fivestar</t>
   </si>
   <si>
-    <t>9 ч. 5 мин. 21 сек.</t>
+    <t>9 ч. 05 мин. 21 сек.</t>
   </si>
   <si>
     <t>77</t>
@@ -734,7 +734,7 @@
     <t>POSIX</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 7 сек.</t>
+    <t>9 ч. 03 мин. 07 сек.</t>
   </si>
   <si>
     <t>78</t>
@@ -788,7 +788,7 @@
     <t>Андруша</t>
   </si>
   <si>
-    <t>8 ч. 43 мин. 4 сек.</t>
+    <t>8 ч. 43 мин. 04 сек.</t>
   </si>
   <si>
     <t>84</t>
@@ -851,7 +851,7 @@
     <t>Обгоняша</t>
   </si>
   <si>
-    <t>8 ч. 24 мин. 4 сек.</t>
+    <t>8 ч. 24 мин. 04 сек.</t>
   </si>
   <si>
     <t>91</t>
@@ -896,7 +896,7 @@
     <t>f0rtuna</t>
   </si>
   <si>
-    <t>8 ч. 2 мин. 21 сек.</t>
+    <t>8 ч. 02 мин. 21 сек.</t>
   </si>
   <si>
     <t>96</t>
@@ -905,7 +905,7 @@
     <t>Кот_Черныш</t>
   </si>
   <si>
-    <t>8 ч. 2 мин. 14 сек.</t>
+    <t>8 ч. 02 мин. 14 сек.</t>
   </si>
   <si>
     <t>97</t>
@@ -959,7 +959,7 @@
     <t>hangling</t>
   </si>
   <si>
-    <t>7 ч. 53 мин. 6 сек.</t>
+    <t>7 ч. 53 мин. 06 сек.</t>
   </si>
   <si>
     <t>103</t>
@@ -1004,7 +1004,7 @@
     <t>akaJackson</t>
   </si>
   <si>
-    <t>7 ч. 39 мин. 5 сек.</t>
+    <t>7 ч. 39 мин. 05 сек.</t>
   </si>
   <si>
     <t>108</t>
@@ -1049,7 +1049,7 @@
     <t>Voldik</t>
   </si>
   <si>
-    <t>7 ч. 29 мин. 0 сек.</t>
+    <t>7 ч. 29 мин. 00 сек.</t>
   </si>
   <si>
     <t>113</t>
@@ -1067,7 +1067,7 @@
     <t>moonwwwind</t>
   </si>
   <si>
-    <t>7 ч. 12 мин. 5 сек.</t>
+    <t>7 ч. 12 мин. 05 сек.</t>
   </si>
   <si>
     <t>115</t>
@@ -1076,7 +1076,7 @@
     <t>Joumii</t>
   </si>
   <si>
-    <t>7 ч. 9 мин. 47 сек.</t>
+    <t>7 ч. 09 мин. 47 сек.</t>
   </si>
   <si>
     <t>116</t>
@@ -1085,7 +1085,7 @@
     <t>exektc</t>
   </si>
   <si>
-    <t>7 ч. 1 мин. 39 сек.</t>
+    <t>7 ч. 01 мин. 39 сек.</t>
   </si>
   <si>
     <t>117</t>
@@ -1175,7 +1175,7 @@
     <t>sourses</t>
   </si>
   <si>
-    <t>6 ч. 44 мин. 6 сек.</t>
+    <t>6 ч. 44 мин. 06 сек.</t>
   </si>
   <si>
     <t>127</t>
@@ -1184,7 +1184,7 @@
     <t>pik7gbv</t>
   </si>
   <si>
-    <t>6 ч. 43 мин. 2 сек.</t>
+    <t>6 ч. 43 мин. 02 сек.</t>
   </si>
   <si>
     <t>128</t>
@@ -1193,7 +1193,7 @@
     <t>Glavredzlovred</t>
   </si>
   <si>
-    <t>6 ч. 43 мин. 0 сек.</t>
+    <t>6 ч. 43 мин. 00 сек.</t>
   </si>
   <si>
     <t>129</t>
@@ -1220,7 +1220,7 @@
     <t>vIRwO</t>
   </si>
   <si>
-    <t>6 ч. 29 мин. 1 сек.</t>
+    <t>6 ч. 29 мин. 01 сек.</t>
   </si>
   <si>
     <t>132</t>
@@ -1346,7 +1346,7 @@
     <t>molot-perm</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 52 сек.</t>
+    <t>6 ч. 06 мин. 52 сек.</t>
   </si>
   <si>
     <t>146</t>
@@ -1382,7 +1382,7 @@
     <t>trilus</t>
   </si>
   <si>
-    <t>5 ч. 55 мин. 5 сек.</t>
+    <t>5 ч. 55 мин. 05 сек.</t>
   </si>
   <si>
     <t>150</t>
@@ -1391,7 +1391,7 @@
     <t>Аурика</t>
   </si>
   <si>
-    <t>5 ч. 53 мин. 2 сек.</t>
+    <t>5 ч. 53 мин. 02 сек.</t>
   </si>
   <si>
     <t>151</t>
@@ -1463,7 +1463,7 @@
     <t>yapoehal</t>
   </si>
   <si>
-    <t>5 ч. 42 мин. 2 сек.</t>
+    <t>5 ч. 42 мин. 02 сек.</t>
   </si>
   <si>
     <t>159</t>
@@ -1553,7 +1553,7 @@
     <t>Speedyman</t>
   </si>
   <si>
-    <t>5 ч. 29 мин. 7 сек.</t>
+    <t>5 ч. 29 мин. 07 сек.</t>
   </si>
   <si>
     <t>169</t>
@@ -1562,7 +1562,7 @@
     <t>ZUN</t>
   </si>
   <si>
-    <t>5 ч. 27 мин. 1 сек.</t>
+    <t>5 ч. 27 мин. 01 сек.</t>
   </si>
   <si>
     <t>170</t>
@@ -1598,7 +1598,7 @@
     <t>безтормозов</t>
   </si>
   <si>
-    <t>5 ч. 23 мин. 8 сек.</t>
+    <t>5 ч. 23 мин. 08 сек.</t>
   </si>
   <si>
     <t>174</t>
@@ -1670,7 +1670,7 @@
     <t>IvanProskura</t>
   </si>
   <si>
-    <t>5 ч. 14 мин. 5 сек.</t>
+    <t>5 ч. 14 мин. 05 сек.</t>
   </si>
   <si>
     <t>182</t>
@@ -1706,7 +1706,7 @@
     <t>Enrage</t>
   </si>
   <si>
-    <t>5 ч. 10 мин. 9 сек.</t>
+    <t>5 ч. 10 мин. 09 сек.</t>
   </si>
   <si>
     <t>186</t>
@@ -1715,7 +1715,7 @@
     <t>flethentel</t>
   </si>
   <si>
-    <t>5 ч. 8 мин. 38 сек.</t>
+    <t>5 ч. 08 мин. 38 сек.</t>
   </si>
   <si>
     <t>187</t>
@@ -1724,7 +1724,7 @@
     <t>отлезь_вова</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 47 сек.</t>
+    <t>5 ч. 07 мин. 47 сек.</t>
   </si>
   <si>
     <t>188</t>
@@ -1733,7 +1733,7 @@
     <t>Iterator</t>
   </si>
   <si>
-    <t>5 ч. 7 мин. 43 сек.</t>
+    <t>5 ч. 07 мин. 43 сек.</t>
   </si>
   <si>
     <t>189</t>
@@ -1742,7 +1742,7 @@
     <t>prestor-jon</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 44 сек.</t>
+    <t>5 ч. 06 мин. 44 сек.</t>
   </si>
   <si>
     <t>190</t>
@@ -1751,7 +1751,7 @@
     <t>nick1m</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 8 сек.</t>
+    <t>5 ч. 06 мин. 08 сек.</t>
   </si>
   <si>
     <t>191</t>
@@ -1760,7 +1760,7 @@
     <t>stag_</t>
   </si>
   <si>
-    <t>5 ч. 5 мин. 19 сек.</t>
+    <t>5 ч. 05 мин. 19 сек.</t>
   </si>
   <si>
     <t>192</t>
@@ -1769,7 +1769,7 @@
     <t>murtag</t>
   </si>
   <si>
-    <t>5 ч. 4 мин. 1 сек.</t>
+    <t>5 ч. 04 мин. 01 сек.</t>
   </si>
   <si>
     <t>193</t>
@@ -1778,7 +1778,7 @@
     <t>pche1</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 43 сек.</t>
+    <t>5 ч. 02 мин. 43 сек.</t>
   </si>
   <si>
     <t>194</t>
@@ -1796,7 +1796,7 @@
     <t>Mirion</t>
   </si>
   <si>
-    <t>4 ч. 59 мин. 4 сек.</t>
+    <t>4 ч. 59 мин. 04 сек.</t>
   </si>
   <si>
     <t>196</t>
@@ -1850,7 +1850,7 @@
     <t>tumanov2012</t>
   </si>
   <si>
-    <t>4 ч. 50 мин. 8 сек.</t>
+    <t>4 ч. 50 мин. 08 сек.</t>
   </si>
   <si>
     <t>202</t>
@@ -1868,7 +1868,7 @@
     <t>нуммулит</t>
   </si>
   <si>
-    <t>4 ч. 48 мин. 5 сек.</t>
+    <t>4 ч. 48 мин. 05 сек.</t>
   </si>
   <si>
     <t>204</t>
@@ -1895,7 +1895,7 @@
     <t>MrSir</t>
   </si>
   <si>
-    <t>4 ч. 47 мин. 5 сек.</t>
+    <t>4 ч. 47 мин. 05 сек.</t>
   </si>
   <si>
     <t>207</t>
@@ -1976,7 +1976,7 @@
     <t>valeryani</t>
   </si>
   <si>
-    <t>4 ч. 35 мин. 8 сек.</t>
+    <t>4 ч. 35 мин. 08 сек.</t>
   </si>
   <si>
     <t>216</t>
@@ -1994,7 +1994,7 @@
     <t>dertru</t>
   </si>
   <si>
-    <t>4 ч. 34 мин. 9 сек.</t>
+    <t>4 ч. 34 мин. 09 сек.</t>
   </si>
   <si>
     <t>218</t>
@@ -2021,7 +2021,7 @@
     <t>Alexey2</t>
   </si>
   <si>
-    <t>4 ч. 30 мин. 1 сек.</t>
+    <t>4 ч. 30 мин. 01 сек.</t>
   </si>
   <si>
     <t>221</t>
@@ -2039,7 +2039,7 @@
     <t>Пилле-Рийн</t>
   </si>
   <si>
-    <t>4 ч. 27 мин. 4 сек.</t>
+    <t>4 ч. 27 мин. 04 сек.</t>
   </si>
   <si>
     <t>223</t>
@@ -2048,7 +2048,7 @@
     <t>Rsay</t>
   </si>
   <si>
-    <t>4 ч. 26 мин. 1 сек.</t>
+    <t>4 ч. 26 мин. 01 сек.</t>
   </si>
   <si>
     <t>224</t>
@@ -2174,7 +2174,7 @@
     <t>Nowhereman42nd</t>
   </si>
   <si>
-    <t>4 ч. 11 мин. 6 сек.</t>
+    <t>4 ч. 11 мин. 06 сек.</t>
   </si>
   <si>
     <t>238</t>
@@ -2183,7 +2183,7 @@
     <t>haos2100</t>
   </si>
   <si>
-    <t>4 ч. 7 мин. 51 сек.</t>
+    <t>4 ч. 07 мин. 51 сек.</t>
   </si>
   <si>
     <t>239</t>
@@ -2192,7 +2192,7 @@
     <t>Nitro8715</t>
   </si>
   <si>
-    <t>4 ч. 7 мин. 41 сек.</t>
+    <t>4 ч. 07 мин. 41 сек.</t>
   </si>
   <si>
     <t>240</t>
@@ -2201,7 +2201,7 @@
     <t>8788</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 41 сек.</t>
+    <t>4 ч. 05 мин. 41 сек.</t>
   </si>
   <si>
     <t>241</t>
@@ -2210,7 +2210,7 @@
     <t>iBumble</t>
   </si>
   <si>
-    <t>4 ч. 3 мин. 26 сек.</t>
+    <t>4 ч. 03 мин. 26 сек.</t>
   </si>
   <si>
     <t>242</t>
@@ -2219,7 +2219,7 @@
     <t>Alhimik_ua</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 32 сек.</t>
+    <t>4 ч. 02 мин. 32 сек.</t>
   </si>
   <si>
     <t>243</t>
@@ -2228,7 +2228,7 @@
     <t>Red_Sky</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 21 сек.</t>
+    <t>4 ч. 02 мин. 21 сек.</t>
   </si>
   <si>
     <t>244</t>
@@ -2237,7 +2237,7 @@
     <t>Ллисса</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 43 сек.</t>
+    <t>4 ч. 00 мин. 43 сек.</t>
   </si>
   <si>
     <t>245</t>
@@ -2282,7 +2282,7 @@
     <t>_Jack_</t>
   </si>
   <si>
-    <t>3 ч. 55 мин. 8 сек.</t>
+    <t>3 ч. 55 мин. 08 сек.</t>
   </si>
   <si>
     <t>250</t>
@@ -2318,7 +2318,7 @@
     <t>Levileipheimer</t>
   </si>
   <si>
-    <t>3 ч. 52 мин. 4 сек.</t>
+    <t>3 ч. 52 мин. 04 сек.</t>
   </si>
   <si>
     <t>254</t>
@@ -2390,7 +2390,7 @@
     <t>Стартуем</t>
   </si>
   <si>
-    <t>3 ч. 46 мин. 2 сек.</t>
+    <t>3 ч. 46 мин. 02 сек.</t>
   </si>
   <si>
     <t>262</t>
@@ -2417,7 +2417,7 @@
     <t>Декарт</t>
   </si>
   <si>
-    <t>3 ч. 44 мин. 0 сек.</t>
+    <t>3 ч. 44 мин. 00 сек.</t>
   </si>
   <si>
     <t>265</t>
@@ -2516,7 +2516,7 @@
     <t>Вася_</t>
   </si>
   <si>
-    <t>3 ч. 37 мин. 1 сек.</t>
+    <t>3 ч. 37 мин. 01 сек.</t>
   </si>
   <si>
     <t>276</t>
@@ -2552,7 +2552,7 @@
     <t>Going</t>
   </si>
   <si>
-    <t>3 ч. 33 мин. 5 сек.</t>
+    <t>3 ч. 33 мин. 05 сек.</t>
   </si>
   <si>
     <t>280</t>
@@ -2588,7 +2588,7 @@
     <t>Lufik</t>
   </si>
   <si>
-    <t>3 ч. 29 мин. 9 сек.</t>
+    <t>3 ч. 29 мин. 09 сек.</t>
   </si>
   <si>
     <t>284</t>
@@ -2597,7 +2597,7 @@
     <t>cross1313</t>
   </si>
   <si>
-    <t>3 ч. 28 мин. 3 сек.</t>
+    <t>3 ч. 28 мин. 03 сек.</t>
   </si>
   <si>
     <t>285</t>
@@ -2633,7 +2633,7 @@
     <t>padfoot</t>
   </si>
   <si>
-    <t>3 ч. 23 мин. 3 сек.</t>
+    <t>3 ч. 23 мин. 03 сек.</t>
   </si>
   <si>
     <t>289</t>
@@ -2642,7 +2642,7 @@
     <t>bulatenkom</t>
   </si>
   <si>
-    <t>3 ч. 23 мин. 1 сек.</t>
+    <t>3 ч. 23 мин. 01 сек.</t>
   </si>
   <si>
     <t>290</t>
@@ -2750,7 +2750,7 @@
     <t>iChessKnock</t>
   </si>
   <si>
-    <t>3 ч. 14 мин. 3 сек.</t>
+    <t>3 ч. 14 мин. 03 сек.</t>
   </si>
   <si>
     <t>302</t>
@@ -2813,7 +2813,7 @@
     <t>я_араб</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 11 сек.</t>
+    <t>3 ч. 09 мин. 11 сек.</t>
   </si>
   <si>
     <t>309</t>
@@ -2822,7 +2822,7 @@
     <t>dynairi</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 45 сек.</t>
+    <t>3 ч. 08 мин. 45 сек.</t>
   </si>
   <si>
     <t>310</t>
@@ -2831,7 +2831,7 @@
     <t>sovofeel</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 44 сек.</t>
+    <t>3 ч. 08 мин. 44 сек.</t>
   </si>
   <si>
     <t>311</t>
@@ -2840,7 +2840,7 @@
     <t>smbody</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 27 сек.</t>
+    <t>3 ч. 08 мин. 27 сек.</t>
   </si>
   <si>
     <t>312</t>
@@ -2849,7 +2849,7 @@
     <t>SamArKin</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 25 сек.</t>
+    <t>3 ч. 08 мин. 25 сек.</t>
   </si>
   <si>
     <t>313</t>
@@ -2858,7 +2858,7 @@
     <t>masque_otrd</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 17 сек.</t>
+    <t>3 ч. 08 мин. 17 сек.</t>
   </si>
   <si>
     <t>314</t>
@@ -2867,7 +2867,7 @@
     <t>nadia_myronuk</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 9 сек.</t>
+    <t>3 ч. 08 мин. 09 сек.</t>
   </si>
   <si>
     <t>315</t>
@@ -2876,7 +2876,7 @@
     <t>denisov7</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 43 сек.</t>
+    <t>3 ч. 06 мин. 43 сек.</t>
   </si>
   <si>
     <t>316</t>
@@ -2885,7 +2885,7 @@
     <t>RasulHacker</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 17 сек.</t>
+    <t>3 ч. 06 мин. 17 сек.</t>
   </si>
   <si>
     <t>317</t>
@@ -2894,7 +2894,7 @@
     <t>-santiago-</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 6 сек.</t>
+    <t>3 ч. 06 мин. 06 сек.</t>
   </si>
   <si>
     <t>318</t>
@@ -2903,7 +2903,7 @@
     <t>14bas14</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 42 сек.</t>
+    <t>3 ч. 05 мин. 42 сек.</t>
   </si>
   <si>
     <t>319</t>
@@ -2912,7 +2912,7 @@
     <t>qqaezz</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 40 сек.</t>
+    <t>3 ч. 05 мин. 40 сек.</t>
   </si>
   <si>
     <t>320</t>
@@ -2921,7 +2921,7 @@
     <t>chievo</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 20 сек.</t>
+    <t>3 ч. 05 мин. 20 сек.</t>
   </si>
   <si>
     <t>321</t>
@@ -2930,7 +2930,7 @@
     <t>saben_askhat</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 12 сек.</t>
+    <t>3 ч. 05 мин. 12 сек.</t>
   </si>
   <si>
     <t>322</t>
@@ -2939,7 +2939,7 @@
     <t>mdnf</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 34 сек.</t>
+    <t>3 ч. 03 мин. 34 сек.</t>
   </si>
   <si>
     <t>323</t>
@@ -2948,7 +2948,7 @@
     <t>quantum_donchi</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 6 сек.</t>
+    <t>3 ч. 03 мин. 06 сек.</t>
   </si>
   <si>
     <t>324</t>
@@ -2957,7 +2957,7 @@
     <t>TARDIS</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 49 сек.</t>
+    <t>3 ч. 02 мин. 49 сек.</t>
   </si>
   <si>
     <t>325</t>
@@ -2966,7 +2966,7 @@
     <t>tfn3k</t>
   </si>
   <si>
-    <t>3 ч. 2 мин. 5 сек.</t>
+    <t>3 ч. 02 мин. 05 сек.</t>
   </si>
   <si>
     <t>326</t>
@@ -2975,7 +2975,7 @@
     <t>VisaryMaster</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 33 сек.</t>
+    <t>3 ч. 00 мин. 33 сек.</t>
   </si>
   <si>
     <t>327</t>
@@ -2984,7 +2984,7 @@
     <t>cybrg</t>
   </si>
   <si>
-    <t>3 ч. 0 мин. 28 сек.</t>
+    <t>3 ч. 00 мин. 28 сек.</t>
   </si>
   <si>
     <t>328</t>
@@ -3056,7 +3056,7 @@
     <t>Kml</t>
   </si>
   <si>
-    <t>2 ч. 58 мин. 6 сек.</t>
+    <t>2 ч. 58 мин. 06 сек.</t>
   </si>
   <si>
     <t>336</t>
@@ -3074,7 +3074,7 @@
     <t>vitazik</t>
   </si>
   <si>
-    <t>2 ч. 57 мин. 3 сек.</t>
+    <t>2 ч. 57 мин. 03 сек.</t>
   </si>
   <si>
     <t>338</t>
@@ -3218,7 +3218,7 @@
     <t>pmp</t>
   </si>
   <si>
-    <t>2 ч. 47 мин. 2 сек.</t>
+    <t>2 ч. 47 мин. 02 сек.</t>
   </si>
   <si>
     <t>354</t>
@@ -3245,7 +3245,7 @@
     <t>флибустьер</t>
   </si>
   <si>
-    <t>2 ч. 46 мин. 6 сек.</t>
+    <t>2 ч. 46 мин. 06 сек.</t>
   </si>
   <si>
     <t>357</t>
@@ -3281,7 +3281,7 @@
     <t>Анетточка</t>
   </si>
   <si>
-    <t>2 ч. 44 мин. 9 сек.</t>
+    <t>2 ч. 44 мин. 09 сек.</t>
   </si>
   <si>
     <t>361</t>
@@ -3290,7 +3290,7 @@
     <t>St58047</t>
   </si>
   <si>
-    <t>2 ч. 44 мин. 3 сек.</t>
+    <t>2 ч. 44 мин. 03 сек.</t>
   </si>
   <si>
     <t>362</t>
@@ -3425,7 +3425,7 @@
     <t>NightKlirik</t>
   </si>
   <si>
-    <t>2 ч. 35 мин. 8 сек.</t>
+    <t>2 ч. 35 мин. 08 сек.</t>
   </si>
   <si>
     <t>377</t>
@@ -3452,7 +3452,7 @@
     <t>Hold_Tight</t>
   </si>
   <si>
-    <t>2 ч. 33 мин. 6 сек.</t>
+    <t>2 ч. 33 мин. 06 сек.</t>
   </si>
   <si>
     <t>380</t>
@@ -3461,7 +3461,7 @@
     <t>maikttt</t>
   </si>
   <si>
-    <t>2 ч. 33 мин. 4 сек.</t>
+    <t>2 ч. 33 мин. 04 сек.</t>
   </si>
   <si>
     <t>381</t>
@@ -3488,7 +3488,7 @@
     <t>самурай_47_</t>
   </si>
   <si>
-    <t>2 ч. 32 мин. 4 сек.</t>
+    <t>2 ч. 32 мин. 04 сек.</t>
   </si>
   <si>
     <t>384</t>
@@ -3524,7 +3524,7 @@
     <t>JamesPenny</t>
   </si>
   <si>
-    <t>2 ч. 30 мин. 7 сек.</t>
+    <t>2 ч. 30 мин. 07 сек.</t>
   </si>
   <si>
     <t>388</t>
@@ -3533,7 +3533,7 @@
     <t>Eyeless</t>
   </si>
   <si>
-    <t>2 ч. 30 мин. 0 сек.</t>
+    <t>2 ч. 30 мин. 00 сек.</t>
   </si>
   <si>
     <t>389</t>
@@ -3578,7 +3578,7 @@
     <t>vicusto</t>
   </si>
   <si>
-    <t>2 ч. 28 мин. 0 сек.</t>
+    <t>2 ч. 28 мин. 00 сек.</t>
   </si>
   <si>
     <t>394</t>
@@ -3632,7 +3632,7 @@
     <t>nozim</t>
   </si>
   <si>
-    <t>2 ч. 26 мин. 6 сек.</t>
+    <t>2 ч. 26 мин. 06 сек.</t>
   </si>
   <si>
     <t>400</t>
@@ -3641,7 +3641,7 @@
     <t>ГОЧА</t>
   </si>
   <si>
-    <t>2 ч. 26 мин. 1 сек.</t>
+    <t>2 ч. 26 мин. 01 сек.</t>
   </si>
   <si>
     <t>401</t>
@@ -3815,7 +3815,7 @@
     <t>730sm</t>
   </si>
   <si>
-    <t>2 ч. 20 мин. 0 сек.</t>
+    <t>2 ч. 20 мин. 00 сек.</t>
   </si>
   <si>
     <t>421</t>
@@ -3833,7 +3833,7 @@
     <t>tinto</t>
   </si>
   <si>
-    <t>2 ч. 19 мин. 8 сек.</t>
+    <t>2 ч. 19 мин. 08 сек.</t>
   </si>
   <si>
     <t>423</t>
@@ -3842,7 +3842,7 @@
     <t>Zerstoren</t>
   </si>
   <si>
-    <t>2 ч. 19 мин. 4 сек.</t>
+    <t>2 ч. 19 мин. 04 сек.</t>
   </si>
   <si>
     <t>424</t>
@@ -3851,7 +3851,7 @@
     <t>Bimbuha</t>
   </si>
   <si>
-    <t>2 ч. 19 мин. 3 сек.</t>
+    <t>2 ч. 19 мин. 03 сек.</t>
   </si>
   <si>
     <t>425</t>
@@ -3896,7 +3896,7 @@
     <t>Виталька</t>
   </si>
   <si>
-    <t>2 ч. 17 мин. 5 сек.</t>
+    <t>2 ч. 17 мин. 05 сек.</t>
   </si>
   <si>
     <t>430</t>
@@ -3977,7 +3977,7 @@
     <t>AstonMartinDB10</t>
   </si>
   <si>
-    <t>2 ч. 15 мин. 8 сек.</t>
+    <t>2 ч. 15 мин. 08 сек.</t>
   </si>
   <si>
     <t>439</t>
@@ -4058,7 +4058,7 @@
     <t>sh1</t>
   </si>
   <si>
-    <t>2 ч. 14 мин. 2 сек.</t>
+    <t>2 ч. 14 мин. 02 сек.</t>
   </si>
   <si>
     <t>448</t>
@@ -4103,7 +4103,7 @@
     <t>strix_qb</t>
   </si>
   <si>
-    <t>2 ч. 11 мин. 8 сек.</t>
+    <t>2 ч. 11 мин. 08 сек.</t>
   </si>
   <si>
     <t>453</t>
@@ -4148,7 +4148,7 @@
     <t>улиточкаЛ</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 36 сек.</t>
+    <t>2 ч. 09 мин. 36 сек.</t>
   </si>
   <si>
     <t>458</t>
@@ -4157,7 +4157,7 @@
     <t>Странник</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 19 сек.</t>
+    <t>2 ч. 09 мин. 19 сек.</t>
   </si>
   <si>
     <t>459</t>
@@ -4166,7 +4166,7 @@
     <t>as-83</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 51 сек.</t>
+    <t>2 ч. 08 мин. 51 сек.</t>
   </si>
   <si>
     <t>460</t>
@@ -4175,7 +4175,7 @@
     <t>MilesH</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 46 сек.</t>
+    <t>2 ч. 08 мин. 46 сек.</t>
   </si>
   <si>
     <t>461</t>
@@ -4184,7 +4184,7 @@
     <t>Vovaldo</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 14 сек.</t>
+    <t>2 ч. 08 мин. 14 сек.</t>
   </si>
   <si>
     <t>462</t>
@@ -4193,7 +4193,7 @@
     <t>Noel</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 11 сек.</t>
+    <t>2 ч. 08 мин. 11 сек.</t>
   </si>
   <si>
     <t>463</t>
@@ -4202,7 +4202,7 @@
     <t>Klume</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 29 сек.</t>
+    <t>2 ч. 07 мин. 29 сек.</t>
   </si>
   <si>
     <t>464</t>
@@ -4211,7 +4211,7 @@
     <t>dbz</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 23 сек.</t>
+    <t>2 ч. 07 мин. 23 сек.</t>
   </si>
   <si>
     <t>465</t>
@@ -4220,7 +4220,7 @@
     <t>lep</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 13 сек.</t>
+    <t>2 ч. 07 мин. 13 сек.</t>
   </si>
   <si>
     <t>466</t>
@@ -4229,7 +4229,7 @@
     <t>M87</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 5 сек.</t>
+    <t>2 ч. 07 мин. 05 сек.</t>
   </si>
   <si>
     <t>467</t>
@@ -4238,7 +4238,7 @@
     <t>Static</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 4 сек.</t>
+    <t>2 ч. 07 мин. 04 сек.</t>
   </si>
   <si>
     <t>468</t>
@@ -4247,7 +4247,7 @@
     <t>lordoz_vladi</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 54 сек.</t>
+    <t>2 ч. 06 мин. 54 сек.</t>
   </si>
   <si>
     <t>469</t>
@@ -4256,7 +4256,7 @@
     <t>бэтман</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 47 сек.</t>
+    <t>2 ч. 06 мин. 47 сек.</t>
   </si>
   <si>
     <t>470</t>
@@ -4265,7 +4265,7 @@
     <t>Кадий</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 38 сек.</t>
+    <t>2 ч. 06 мин. 38 сек.</t>
   </si>
   <si>
     <t>471</t>
@@ -4274,7 +4274,7 @@
     <t>_Nicole_</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 58 сек.</t>
+    <t>2 ч. 05 мин. 58 сек.</t>
   </si>
   <si>
     <t>472</t>
@@ -4283,7 +4283,7 @@
     <t>NK7</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 52 сек.</t>
+    <t>2 ч. 05 мин. 52 сек.</t>
   </si>
   <si>
     <t>473</t>
@@ -4292,7 +4292,7 @@
     <t>PROcent</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 40 сек.</t>
+    <t>2 ч. 05 мин. 40 сек.</t>
   </si>
   <si>
     <t>474</t>
@@ -4301,7 +4301,7 @@
     <t>Uraniadz</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 22 сек.</t>
+    <t>2 ч. 05 мин. 22 сек.</t>
   </si>
   <si>
     <t>475</t>
@@ -4310,7 +4310,7 @@
     <t>KikiJiki85</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 17 сек.</t>
+    <t>2 ч. 05 мин. 17 сек.</t>
   </si>
   <si>
     <t>476</t>
@@ -4319,7 +4319,7 @@
     <t>studyingtaping</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 11 сек.</t>
+    <t>2 ч. 05 мин. 11 сек.</t>
   </si>
   <si>
     <t>477</t>
@@ -4328,7 +4328,7 @@
     <t>mourieste</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 7 сек.</t>
+    <t>2 ч. 05 мин. 07 сек.</t>
   </si>
   <si>
     <t>478</t>
@@ -4337,7 +4337,7 @@
     <t>CyrCyr</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 4 сек.</t>
+    <t>2 ч. 05 мин. 04 сек.</t>
   </si>
   <si>
     <t>479</t>
@@ -4346,7 +4346,7 @@
     <t>ivab</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 53 сек.</t>
+    <t>2 ч. 04 мин. 53 сек.</t>
   </si>
   <si>
     <t>480</t>
@@ -4355,7 +4355,7 @@
     <t>Vi2GaN</t>
   </si>
   <si>
-    <t>2 ч. 4 мин. 47 сек.</t>
+    <t>2 ч. 04 мин. 47 сек.</t>
   </si>
   <si>
     <t>481</t>
@@ -4364,7 +4364,7 @@
     <t>s0lnyshk0</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 54 сек.</t>
+    <t>2 ч. 03 мин. 54 сек.</t>
   </si>
   <si>
     <t>482</t>
@@ -4373,7 +4373,7 @@
     <t>lovermann</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 26 сек.</t>
+    <t>2 ч. 03 мин. 26 сек.</t>
   </si>
   <si>
     <t>483</t>
@@ -4382,7 +4382,7 @@
     <t>dsdt</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 24 сек.</t>
+    <t>2 ч. 03 мин. 24 сек.</t>
   </si>
   <si>
     <t>484</t>
@@ -4391,7 +4391,7 @@
     <t>ITur</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 15 сек.</t>
+    <t>2 ч. 03 мин. 15 сек.</t>
   </si>
   <si>
     <t>485</t>
@@ -4400,7 +4400,7 @@
     <t>Anastasilya</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 58 сек.</t>
+    <t>2 ч. 02 мин. 58 сек.</t>
   </si>
   <si>
     <t>486</t>
@@ -4409,7 +4409,7 @@
     <t>mavru</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 57 сек.</t>
+    <t>2 ч. 02 мин. 57 сек.</t>
   </si>
   <si>
     <t>487</t>
@@ -4418,7 +4418,7 @@
     <t>Anna918</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 49 сек.</t>
+    <t>2 ч. 02 мин. 49 сек.</t>
   </si>
   <si>
     <t>488</t>
@@ -4427,7 +4427,7 @@
     <t>Рустамко</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 40 сек.</t>
+    <t>2 ч. 02 мин. 40 сек.</t>
   </si>
   <si>
     <t>489</t>
@@ -4436,7 +4436,7 @@
     <t>Zephir</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 4 сек.</t>
+    <t>2 ч. 02 мин. 04 сек.</t>
   </si>
   <si>
     <t>490</t>
@@ -4445,7 +4445,7 @@
     <t>Chame</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 49 сек.</t>
+    <t>2 ч. 01 мин. 49 сек.</t>
   </si>
   <si>
     <t>491</t>
@@ -4454,7 +4454,7 @@
     <t>DvoraQwer</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 8 сек.</t>
+    <t>2 ч. 01 мин. 08 сек.</t>
   </si>
   <si>
     <t>492</t>
@@ -4463,7 +4463,7 @@
     <t>sbhx</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 32 сек.</t>
+    <t>2 ч. 00 мин. 32 сек.</t>
   </si>
   <si>
     <t>493</t>
@@ -4472,7 +4472,7 @@
     <t>fedyagor</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 5 сек.</t>
+    <t>2 ч. 00 мин. 05 сек.</t>
   </si>
   <si>
     <t>494</t>
@@ -4526,7 +4526,7 @@
     <t>-insOMnia-</t>
   </si>
   <si>
-    <t>1 ч. 59 мин. 0 сек.</t>
+    <t>1 ч. 59 мин. 00 сек.</t>
   </si>
   <si>
     <t>500</t>
@@ -4598,7 +4598,7 @@
     <t>mercy123</t>
   </si>
   <si>
-    <t>1 ч. 58 мин. 6 сек.</t>
+    <t>1 ч. 58 мин. 06 сек.</t>
   </si>
   <si>
     <t>Ladimir</t>
@@ -4610,7 +4610,7 @@
     <t>Anun</t>
   </si>
   <si>
-    <t>1 ч. 58 мин. 5 сек.</t>
+    <t>1 ч. 58 мин. 05 сек.</t>
   </si>
   <si>
     <t>510</t>
@@ -4646,7 +4646,7 @@
     <t>CTuKEP</t>
   </si>
   <si>
-    <t>1 ч. 56 мин. 2 сек.</t>
+    <t>1 ч. 56 мин. 02 сек.</t>
   </si>
   <si>
     <t>514</t>
@@ -4709,7 +4709,7 @@
     <t>veron9399</t>
   </si>
   <si>
-    <t>1 ч. 55 мин. 1 сек.</t>
+    <t>1 ч. 55 мин. 01 сек.</t>
   </si>
   <si>
     <t>521</t>
@@ -4781,7 +4781,7 @@
     <t>fatuous</t>
   </si>
   <si>
-    <t>1 ч. 53 мин. 3 сек.</t>
+    <t>1 ч. 53 мин. 03 сек.</t>
   </si>
   <si>
     <t>529</t>
@@ -4865,7 +4865,7 @@
     <t>igormsu</t>
   </si>
   <si>
-    <t>1 ч. 52 мин. 0 сек.</t>
+    <t>1 ч. 52 мин. 00 сек.</t>
   </si>
   <si>
     <t>539</t>
@@ -4910,7 +4910,7 @@
     <t>oyasumi</t>
   </si>
   <si>
-    <t>1 ч. 51 мин. 8 сек.</t>
+    <t>1 ч. 51 мин. 08 сек.</t>
   </si>
   <si>
     <t>544</t>
@@ -5102,7 +5102,7 @@
     <t>puchkarito</t>
   </si>
   <si>
-    <t>1 ч. 46 мин. 6 сек.</t>
+    <t>1 ч. 46 мин. 06 сек.</t>
   </si>
   <si>
     <t>566</t>
@@ -5111,7 +5111,7 @@
     <t>Stremer</t>
   </si>
   <si>
-    <t>1 ч. 46 мин. 1 сек.</t>
+    <t>1 ч. 46 мин. 01 сек.</t>
   </si>
   <si>
     <t>567</t>
@@ -5228,7 +5228,7 @@
     <t>Фаст</t>
   </si>
   <si>
-    <t>1 ч. 44 мин. 5 сек.</t>
+    <t>1 ч. 44 мин. 05 сек.</t>
   </si>
   <si>
     <t>580</t>
@@ -5255,7 +5255,7 @@
     <t>ShavgaStas</t>
   </si>
   <si>
-    <t>1 ч. 43 мин. 4 сек.</t>
+    <t>1 ч. 43 мин. 04 сек.</t>
   </si>
   <si>
     <t>583</t>
@@ -5345,7 +5345,7 @@
     <t>kosal</t>
   </si>
   <si>
-    <t>1 ч. 41 мин. 5 сек.</t>
+    <t>1 ч. 41 мин. 05 сек.</t>
   </si>
   <si>
     <t>593</t>
@@ -5363,7 +5363,7 @@
     <t>ras2223car</t>
   </si>
   <si>
-    <t>1 ч. 40 мин. 9 сек.</t>
+    <t>1 ч. 40 мин. 09 сек.</t>
   </si>
   <si>
     <t>595</t>
@@ -5372,7 +5372,7 @@
     <t>_Ayrat_</t>
   </si>
   <si>
-    <t>1 ч. 40 мин. 8 сек.</t>
+    <t>1 ч. 40 мин. 08 сек.</t>
   </si>
   <si>
     <t>596</t>
@@ -5381,7 +5381,7 @@
     <t>aliwagner</t>
   </si>
   <si>
-    <t>1 ч. 40 мин. 4 сек.</t>
+    <t>1 ч. 40 мин. 04 сек.</t>
   </si>
   <si>
     <t>597</t>
@@ -5390,7 +5390,7 @@
     <t>lxndrdnlv</t>
   </si>
   <si>
-    <t>1 ч. 40 мин. 0 сек.</t>
+    <t>1 ч. 40 мин. 00 сек.</t>
   </si>
   <si>
     <t>598</t>
@@ -5498,7 +5498,7 @@
     <t>andech</t>
   </si>
   <si>
-    <t>1 ч. 38 мин. 9 сек.</t>
+    <t>1 ч. 38 мин. 09 сек.</t>
   </si>
   <si>
     <t>610</t>
@@ -5582,7 +5582,7 @@
     <t>AlexPolos</t>
   </si>
   <si>
-    <t>1 ч. 36 мин. 6 сек.</t>
+    <t>1 ч. 36 мин. 06 сек.</t>
   </si>
   <si>
     <t>620</t>
@@ -5591,7 +5591,7 @@
     <t>coolgrave</t>
   </si>
   <si>
-    <t>1 ч. 36 мин. 1 сек.</t>
+    <t>1 ч. 36 мин. 01 сек.</t>
   </si>
   <si>
     <t>621</t>
@@ -5648,7 +5648,7 @@
     <t>qwertrewq</t>
   </si>
   <si>
-    <t>1 ч. 35 мин. 9 сек.</t>
+    <t>1 ч. 35 мин. 09 сек.</t>
   </si>
   <si>
     <t>628</t>
@@ -5705,7 +5705,7 @@
     <t>deadmage</t>
   </si>
   <si>
-    <t>1 ч. 34 мин. 6 сек.</t>
+    <t>1 ч. 34 мин. 06 сек.</t>
   </si>
   <si>
     <t>635</t>
@@ -5759,7 +5759,7 @@
     <t>sanek3</t>
   </si>
   <si>
-    <t>1 ч. 33 мин. 6 сек.</t>
+    <t>1 ч. 33 мин. 06 сек.</t>
   </si>
   <si>
     <t>EclipseJDK</t>
@@ -5843,7 +5843,7 @@
     <t>sashavirtual</t>
   </si>
   <si>
-    <t>1 ч. 31 мин. 3 сек.</t>
+    <t>1 ч. 31 мин. 03 сек.</t>
   </si>
   <si>
     <t>651</t>
@@ -5852,7 +5852,7 @@
     <t>Newaton</t>
   </si>
   <si>
-    <t>1 ч. 31 мин. 0 сек.</t>
+    <t>1 ч. 31 мин. 00 сек.</t>
   </si>
   <si>
     <t>652</t>
@@ -5975,7 +5975,7 @@
     <t>fpv_yo</t>
   </si>
   <si>
-    <t>1 ч. 29 мин. 5 сек.</t>
+    <t>1 ч. 29 мин. 05 сек.</t>
   </si>
   <si>
     <t>667</t>
@@ -6020,7 +6020,7 @@
     <t>LadyIrina</t>
   </si>
   <si>
-    <t>1 ч. 28 мин. 8 сек.</t>
+    <t>1 ч. 28 мин. 08 сек.</t>
   </si>
   <si>
     <t>Disobey</t>
@@ -6032,7 +6032,7 @@
     <t>_Влада_</t>
   </si>
   <si>
-    <t>1 ч. 28 мин. 1 сек.</t>
+    <t>1 ч. 28 мин. 01 сек.</t>
   </si>
   <si>
     <t>674</t>
@@ -6095,7 +6095,7 @@
     <t>sav1</t>
   </si>
   <si>
-    <t>1 ч. 27 мин. 8 сек.</t>
+    <t>1 ч. 27 мин. 08 сек.</t>
   </si>
   <si>
     <t>681</t>
@@ -6104,7 +6104,7 @@
     <t>spawn_once</t>
   </si>
   <si>
-    <t>1 ч. 27 мин. 0 сек.</t>
+    <t>1 ч. 27 мин. 00 сек.</t>
   </si>
   <si>
     <t>682</t>
@@ -6185,7 +6185,7 @@
     <t>Bolot</t>
   </si>
   <si>
-    <t>1 ч. 25 мин. 7 сек.</t>
+    <t>1 ч. 25 мин. 07 сек.</t>
   </si>
   <si>
     <t>691</t>
@@ -6194,7 +6194,7 @@
     <t>system_error</t>
   </si>
   <si>
-    <t>1 ч. 25 мин. 6 сек.</t>
+    <t>1 ч. 25 мин. 06 сек.</t>
   </si>
   <si>
     <t>692</t>
@@ -6266,7 +6266,7 @@
     <t>Developer313</t>
   </si>
   <si>
-    <t>1 ч. 24 мин. 1 сек.</t>
+    <t>1 ч. 24 мин. 01 сек.</t>
   </si>
   <si>
     <t>700</t>
@@ -6275,7 +6275,7 @@
     <t>gevis</t>
   </si>
   <si>
-    <t>1 ч. 24 мин. 0 сек.</t>
+    <t>1 ч. 24 мин. 00 сек.</t>
   </si>
   <si>
     <t>701</t>
@@ -6311,7 +6311,7 @@
     <t>WellMaxT</t>
   </si>
   <si>
-    <t>1 ч. 23 мин. 4 сек.</t>
+    <t>1 ч. 23 мин. 04 сек.</t>
   </si>
   <si>
     <t>705</t>
@@ -6320,7 +6320,7 @@
     <t>gluckss2</t>
   </si>
   <si>
-    <t>1 ч. 23 мин. 3 сек.</t>
+    <t>1 ч. 23 мин. 03 сек.</t>
   </si>
   <si>
     <t>706</t>
@@ -6374,7 +6374,7 @@
     <t>Leolex</t>
   </si>
   <si>
-    <t>1 ч. 22 мин. 0 сек.</t>
+    <t>1 ч. 22 мин. 00 сек.</t>
   </si>
   <si>
     <t>712</t>
@@ -6419,7 +6419,7 @@
     <t>Экстравагантный</t>
   </si>
   <si>
-    <t>1 ч. 21 мин. 8 сек.</t>
+    <t>1 ч. 21 мин. 08 сек.</t>
   </si>
   <si>
     <t>717</t>
@@ -6428,7 +6428,7 @@
     <t>eowyn_eorling</t>
   </si>
   <si>
-    <t>1 ч. 21 мин. 7 сек.</t>
+    <t>1 ч. 21 мин. 07 сек.</t>
   </si>
   <si>
     <t>718</t>
@@ -6437,7 +6437,7 @@
     <t>Aus</t>
   </si>
   <si>
-    <t>1 ч. 21 мин. 1 сек.</t>
+    <t>1 ч. 21 мин. 01 сек.</t>
   </si>
   <si>
     <t>719</t>
@@ -6482,7 +6482,7 @@
     <t>dvimster</t>
   </si>
   <si>
-    <t>1 ч. 20 мин. 8 сек.</t>
+    <t>1 ч. 20 мин. 08 сек.</t>
   </si>
   <si>
     <t>724</t>
@@ -6491,7 +6491,7 @@
     <t>alexandr-ftf</t>
   </si>
   <si>
-    <t>1 ч. 20 мин. 1 сек.</t>
+    <t>1 ч. 20 мин. 01 сек.</t>
   </si>
   <si>
     <t>725</t>
@@ -6626,7 +6626,7 @@
     <t>Engi</t>
   </si>
   <si>
-    <t>1 ч. 17 мин. 2 сек.</t>
+    <t>1 ч. 17 мин. 02 сек.</t>
   </si>
   <si>
     <t>740</t>
@@ -6701,7 +6701,7 @@
     <t>Misprinter</t>
   </si>
   <si>
-    <t>1 ч. 15 мин. 8 сек.</t>
+    <t>1 ч. 15 мин. 08 сек.</t>
   </si>
   <si>
     <t>749</t>
@@ -6755,7 +6755,7 @@
     <t>Slavik89</t>
   </si>
   <si>
-    <t>1 ч. 14 мин. 8 сек.</t>
+    <t>1 ч. 14 мин. 08 сек.</t>
   </si>
   <si>
     <t>755</t>
@@ -6764,7 +6764,7 @@
     <t>RODIS</t>
   </si>
   <si>
-    <t>1 ч. 14 мин. 5 сек.</t>
+    <t>1 ч. 14 мин. 05 сек.</t>
   </si>
   <si>
     <t>756</t>
@@ -6773,7 +6773,7 @@
     <t>Feshchenko</t>
   </si>
   <si>
-    <t>1 ч. 14 мин. 2 сек.</t>
+    <t>1 ч. 14 мин. 02 сек.</t>
   </si>
   <si>
     <t>757</t>
@@ -6782,7 +6782,7 @@
     <t>Толик_Цой</t>
   </si>
   <si>
-    <t>1 ч. 14 мин. 1 сек.</t>
+    <t>1 ч. 14 мин. 01 сек.</t>
   </si>
   <si>
     <t>758</t>
@@ -6836,7 +6836,7 @@
     <t>madk1nd</t>
   </si>
   <si>
-    <t>1 ч. 13 мин. 2 сек.</t>
+    <t>1 ч. 13 мин. 02 сек.</t>
   </si>
   <si>
     <t>764</t>
@@ -6944,7 +6944,7 @@
     <t>uniko</t>
   </si>
   <si>
-    <t>1 ч. 11 мин. 7 сек.</t>
+    <t>1 ч. 11 мин. 07 сек.</t>
   </si>
   <si>
     <t>776</t>
@@ -6953,7 +6953,7 @@
     <t>Argregor</t>
   </si>
   <si>
-    <t>1 ч. 11 мин. 2 сек.</t>
+    <t>1 ч. 11 мин. 02 сек.</t>
   </si>
   <si>
     <t>777</t>
@@ -6962,7 +6962,7 @@
     <t>osipetka</t>
   </si>
   <si>
-    <t>1 ч. 11 мин. 0 сек.</t>
+    <t>1 ч. 11 мин. 00 сек.</t>
   </si>
   <si>
     <t>778</t>
@@ -7019,7 +7019,7 @@
     <t>manhunt7</t>
   </si>
   <si>
-    <t>1 ч. 10 мин. 8 сек.</t>
+    <t>1 ч. 10 мин. 08 сек.</t>
   </si>
   <si>
     <t>785</t>
@@ -7028,7 +7028,7 @@
     <t>Desser</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 54 сек.</t>
+    <t>1 ч. 09 мин. 54 сек.</t>
   </si>
   <si>
     <t>786</t>
@@ -7037,7 +7037,7 @@
     <t>alanen</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 53 сек.</t>
+    <t>1 ч. 09 мин. 53 сек.</t>
   </si>
   <si>
     <t>787</t>
@@ -7046,7 +7046,7 @@
     <t>Alkhor</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 35 сек.</t>
+    <t>1 ч. 09 мин. 35 сек.</t>
   </si>
   <si>
     <t>788</t>
@@ -7055,7 +7055,7 @@
     <t>kasiveyser</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 23 сек.</t>
+    <t>1 ч. 09 мин. 23 сек.</t>
   </si>
   <si>
     <t>789</t>
@@ -7064,7 +7064,7 @@
     <t>rseniy3</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 6 сек.</t>
+    <t>1 ч. 09 мин. 06 сек.</t>
   </si>
   <si>
     <t>790</t>
@@ -7073,7 +7073,7 @@
     <t>франс</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 3 сек.</t>
+    <t>1 ч. 09 мин. 03 сек.</t>
   </si>
   <si>
     <t>791</t>
@@ -7082,7 +7082,7 @@
     <t>Just</t>
   </si>
   <si>
-    <t>1 ч. 9 мин. 1 сек.</t>
+    <t>1 ч. 09 мин. 01 сек.</t>
   </si>
   <si>
     <t>792</t>
@@ -7091,7 +7091,7 @@
     <t>balanenko</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 53 сек.</t>
+    <t>1 ч. 08 мин. 53 сек.</t>
   </si>
   <si>
     <t>793</t>
@@ -7100,7 +7100,7 @@
     <t>Себрик</t>
   </si>
   <si>
-    <t>1 ч. 8 мин. 4 сек.</t>
+    <t>1 ч. 08 мин. 04 сек.</t>
   </si>
   <si>
     <t>794</t>
@@ -7109,7 +7109,7 @@
     <t>KOSTYA410</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 44 сек.</t>
+    <t>1 ч. 07 мин. 44 сек.</t>
   </si>
   <si>
     <t>795</t>
@@ -7118,7 +7118,7 @@
     <t>Vsesvet</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 40 сек.</t>
+    <t>1 ч. 07 мин. 40 сек.</t>
   </si>
   <si>
     <t>796</t>
@@ -7127,7 +7127,7 @@
     <t>droom</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 33 сек.</t>
+    <t>1 ч. 07 мин. 33 сек.</t>
   </si>
   <si>
     <t>797</t>
@@ -7136,7 +7136,7 @@
     <t>Мач</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 17 сек.</t>
+    <t>1 ч. 07 мин. 17 сек.</t>
   </si>
   <si>
     <t>798</t>
@@ -7145,7 +7145,7 @@
     <t>Euki</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 11 сек.</t>
+    <t>1 ч. 07 мин. 11 сек.</t>
   </si>
   <si>
     <t>799</t>
@@ -7154,7 +7154,7 @@
     <t>vladdotac</t>
   </si>
   <si>
-    <t>1 ч. 7 мин. 10 сек.</t>
+    <t>1 ч. 07 мин. 10 сек.</t>
   </si>
   <si>
     <t>800</t>
@@ -7163,7 +7163,7 @@
     <t>Alli-Shi</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 36 сек.</t>
+    <t>1 ч. 06 мин. 36 сек.</t>
   </si>
   <si>
     <t>801</t>
@@ -7172,7 +7172,7 @@
     <t>dosaaf76</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 31 сек.</t>
+    <t>1 ч. 06 мин. 31 сек.</t>
   </si>
   <si>
     <t>802</t>
@@ -7181,7 +7181,7 @@
     <t>felicia_</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 28 сек.</t>
+    <t>1 ч. 06 мин. 28 сек.</t>
   </si>
   <si>
     <t>803</t>
@@ -7190,7 +7190,7 @@
     <t>ОКейка</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 23 сек.</t>
+    <t>1 ч. 06 мин. 23 сек.</t>
   </si>
   <si>
     <t>804</t>
@@ -7199,7 +7199,7 @@
     <t>NionNet</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 15 сек.</t>
+    <t>1 ч. 06 мин. 15 сек.</t>
   </si>
   <si>
     <t>805</t>
@@ -7208,7 +7208,7 @@
     <t>Denzilman</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 13 сек.</t>
+    <t>1 ч. 06 мин. 13 сек.</t>
   </si>
   <si>
     <t>806</t>
@@ -7217,7 +7217,7 @@
     <t>http</t>
   </si>
   <si>
-    <t>1 ч. 6 мин. 4 сек.</t>
+    <t>1 ч. 06 мин. 04 сек.</t>
   </si>
   <si>
     <t>807</t>
@@ -7226,7 +7226,7 @@
     <t>Кнопкомет</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 58 сек.</t>
+    <t>1 ч. 05 мин. 58 сек.</t>
   </si>
   <si>
     <t>808</t>
@@ -7235,7 +7235,7 @@
     <t>ИльдарВолжский</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 56 сек.</t>
+    <t>1 ч. 05 мин. 56 сек.</t>
   </si>
   <si>
     <t>809</t>
@@ -7244,7 +7244,7 @@
     <t>Fenex</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 52 сек.</t>
+    <t>1 ч. 05 мин. 52 сек.</t>
   </si>
   <si>
     <t>810</t>
@@ -7253,7 +7253,7 @@
     <t>xxl11</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 31 сек.</t>
+    <t>1 ч. 05 мин. 31 сек.</t>
   </si>
   <si>
     <t>811</t>
@@ -7262,7 +7262,7 @@
     <t>userbit</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 29 сек.</t>
+    <t>1 ч. 05 мин. 29 сек.</t>
   </si>
   <si>
     <t>812</t>
@@ -7271,7 +7271,7 @@
     <t>КлавоЕд</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 28 сек.</t>
+    <t>1 ч. 05 мин. 28 сек.</t>
   </si>
   <si>
     <t>813</t>
@@ -7280,7 +7280,7 @@
     <t>mishlen79</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 26 сек.</t>
+    <t>1 ч. 05 мин. 26 сек.</t>
   </si>
   <si>
     <t>814</t>
@@ -7289,7 +7289,7 @@
     <t>Bhiopk</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 21 сек.</t>
+    <t>1 ч. 05 мин. 21 сек.</t>
   </si>
   <si>
     <t>815</t>
@@ -7298,7 +7298,7 @@
     <t>mtu</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 20 сек.</t>
+    <t>1 ч. 05 мин. 20 сек.</t>
   </si>
   <si>
     <t>816</t>
@@ -7307,7 +7307,7 @@
     <t>Drayn</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 19 сек.</t>
+    <t>1 ч. 05 мин. 19 сек.</t>
   </si>
   <si>
     <t>817</t>
@@ -7316,7 +7316,7 @@
     <t>puma3033</t>
   </si>
   <si>
-    <t>1 ч. 5 мин. 4 сек.</t>
+    <t>1 ч. 05 мин. 04 сек.</t>
   </si>
   <si>
     <t>818</t>
@@ -7325,7 +7325,7 @@
     <t>Locust</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 57 сек.</t>
+    <t>1 ч. 04 мин. 57 сек.</t>
   </si>
   <si>
     <t>819</t>
@@ -7334,7 +7334,7 @@
     <t>bwp</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 52 сек.</t>
+    <t>1 ч. 04 мин. 52 сек.</t>
   </si>
   <si>
     <t>820</t>
@@ -7343,7 +7343,7 @@
     <t>romashe</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 39 сек.</t>
+    <t>1 ч. 04 мин. 39 сек.</t>
   </si>
   <si>
     <t>821</t>
@@ -7352,7 +7352,7 @@
     <t>Mellow</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 32 сек.</t>
+    <t>1 ч. 04 мин. 32 сек.</t>
   </si>
   <si>
     <t>822</t>
@@ -7361,7 +7361,7 @@
     <t>Vesna2011</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 31 сек.</t>
+    <t>1 ч. 04 мин. 31 сек.</t>
   </si>
   <si>
     <t>823</t>
@@ -7370,7 +7370,7 @@
     <t>Мимо_Крокодил</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 24 сек.</t>
+    <t>1 ч. 04 мин. 24 сек.</t>
   </si>
   <si>
     <t>824</t>
@@ -7379,7 +7379,7 @@
     <t>violence23</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 12 сек.</t>
+    <t>1 ч. 04 мин. 12 сек.</t>
   </si>
   <si>
     <t>825</t>
@@ -7388,7 +7388,7 @@
     <t>драконДьявола</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 7 сек.</t>
+    <t>1 ч. 04 мин. 07 сек.</t>
   </si>
   <si>
     <t>826</t>
@@ -7397,7 +7397,7 @@
     <t>kxinekton</t>
   </si>
   <si>
-    <t>1 ч. 4 мин. 0 сек.</t>
+    <t>1 ч. 04 мин. 00 сек.</t>
   </si>
   <si>
     <t>827</t>
@@ -7406,7 +7406,7 @@
     <t>drago1233</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 44 сек.</t>
+    <t>1 ч. 03 мин. 44 сек.</t>
   </si>
   <si>
     <t>828</t>
@@ -7415,7 +7415,7 @@
     <t>Meteora277</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 42 сек.</t>
+    <t>1 ч. 03 мин. 42 сек.</t>
   </si>
   <si>
     <t>829</t>
@@ -7424,7 +7424,7 @@
     <t>akaSStalkALEX</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 31 сек.</t>
+    <t>1 ч. 03 мин. 31 сек.</t>
   </si>
   <si>
     <t>830–831</t>
@@ -7433,7 +7433,7 @@
     <t>chisel</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 29 сек.</t>
+    <t>1 ч. 03 мин. 29 сек.</t>
   </si>
   <si>
     <t>mixalezhnev</t>
@@ -7445,7 +7445,7 @@
     <t>keyBoardMan</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 26 сек.</t>
+    <t>1 ч. 03 мин. 26 сек.</t>
   </si>
   <si>
     <t>833</t>
@@ -7454,7 +7454,7 @@
     <t>manfies</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 7 сек.</t>
+    <t>1 ч. 03 мин. 07 сек.</t>
   </si>
   <si>
     <t>834</t>
@@ -7463,7 +7463,7 @@
     <t>Morbid_Angel</t>
   </si>
   <si>
-    <t>1 ч. 3 мин. 5 сек.</t>
+    <t>1 ч. 03 мин. 05 сек.</t>
   </si>
   <si>
     <t>835</t>
@@ -7472,7 +7472,7 @@
     <t>Ludimagister</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 56 сек.</t>
+    <t>1 ч. 02 мин. 56 сек.</t>
   </si>
   <si>
     <t>836</t>
@@ -7481,7 +7481,7 @@
     <t>strakhov94</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 49 сек.</t>
+    <t>1 ч. 02 мин. 49 сек.</t>
   </si>
   <si>
     <t>837</t>
@@ -7490,7 +7490,7 @@
     <t>Selica</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 48 сек.</t>
+    <t>1 ч. 02 мин. 48 сек.</t>
   </si>
   <si>
     <t>838</t>
@@ -7499,7 +7499,7 @@
     <t>непотомуль</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 41 сек.</t>
+    <t>1 ч. 02 мин. 41 сек.</t>
   </si>
   <si>
     <t>839</t>
@@ -7508,7 +7508,7 @@
     <t>Oyvse</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 40 сек.</t>
+    <t>1 ч. 02 мин. 40 сек.</t>
   </si>
   <si>
     <t>840</t>
@@ -7517,7 +7517,7 @@
     <t>ntfs</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 30 сек.</t>
+    <t>1 ч. 02 мин. 30 сек.</t>
   </si>
   <si>
     <t>841</t>
@@ -7526,7 +7526,7 @@
     <t>mypluha</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 26 сек.</t>
+    <t>1 ч. 02 мин. 26 сек.</t>
   </si>
   <si>
     <t>842</t>
@@ -7535,7 +7535,7 @@
     <t>Breakdown</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 23 сек.</t>
+    <t>1 ч. 02 мин. 23 сек.</t>
   </si>
   <si>
     <t>843</t>
@@ -7544,7 +7544,7 @@
     <t>exdark</t>
   </si>
   <si>
-    <t>1 ч. 2 мин. 10 сек.</t>
+    <t>1 ч. 02 мин. 10 сек.</t>
   </si>
   <si>
     <t>844</t>
@@ -7553,7 +7553,7 @@
     <t>Миша-Буденновск</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 57 сек.</t>
+    <t>1 ч. 01 мин. 57 сек.</t>
   </si>
   <si>
     <t>845</t>
@@ -7562,7 +7562,7 @@
     <t>Arimusya</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 54 сек.</t>
+    <t>1 ч. 01 мин. 54 сек.</t>
   </si>
   <si>
     <t>846</t>
@@ -7571,7 +7571,7 @@
     <t>YE11OW</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 52 сек.</t>
+    <t>1 ч. 01 мин. 52 сек.</t>
   </si>
   <si>
     <t>847</t>
@@ -7580,7 +7580,7 @@
     <t>Dany</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 50 сек.</t>
+    <t>1 ч. 01 мин. 50 сек.</t>
   </si>
   <si>
     <t>848</t>
@@ -7589,7 +7589,7 @@
     <t>visoko</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 49 сек.</t>
+    <t>1 ч. 01 мин. 49 сек.</t>
   </si>
   <si>
     <t>849</t>
@@ -7598,7 +7598,7 @@
     <t>SquirrelFox</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 35 сек.</t>
+    <t>1 ч. 01 мин. 35 сек.</t>
   </si>
   <si>
     <t>850</t>
@@ -7607,7 +7607,7 @@
     <t>LDNSB</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 34 сек.</t>
+    <t>1 ч. 01 мин. 34 сек.</t>
   </si>
   <si>
     <t>851</t>
@@ -7616,7 +7616,7 @@
     <t>beethoven</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 29 сек.</t>
+    <t>1 ч. 01 мин. 29 сек.</t>
   </si>
   <si>
     <t>852</t>
@@ -7625,7 +7625,7 @@
     <t>vei</t>
   </si>
   <si>
-    <t>1 ч. 1 мин. 11 сек.</t>
+    <t>1 ч. 01 мин. 11 сек.</t>
   </si>
   <si>
     <t>853</t>
@@ -7634,7 +7634,7 @@
     <t>LANC</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 49 сек.</t>
+    <t>1 ч. 00 мин. 49 сек.</t>
   </si>
   <si>
     <t>854–855</t>
@@ -7643,7 +7643,7 @@
     <t>Leshiy239</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 48 сек.</t>
+    <t>1 ч. 00 мин. 48 сек.</t>
   </si>
   <si>
     <t>redaler</t>
@@ -7655,7 +7655,7 @@
     <t>Kentan</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 45 сек.</t>
+    <t>1 ч. 00 мин. 45 сек.</t>
   </si>
   <si>
     <t>857</t>
@@ -7664,7 +7664,7 @@
     <t>Etoneja</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 42 сек.</t>
+    <t>1 ч. 00 мин. 42 сек.</t>
   </si>
   <si>
     <t>858</t>
@@ -7673,7 +7673,7 @@
     <t>galileo-job</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 38 сек.</t>
+    <t>1 ч. 00 мин. 38 сек.</t>
   </si>
   <si>
     <t>859</t>
@@ -7682,7 +7682,7 @@
     <t>yescast</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 37 сек.</t>
+    <t>1 ч. 00 мин. 37 сек.</t>
   </si>
   <si>
     <t>860</t>
@@ -7691,7 +7691,7 @@
     <t>S0meOne</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 28 сек.</t>
+    <t>1 ч. 00 мин. 28 сек.</t>
   </si>
   <si>
     <t>861</t>
@@ -7700,7 +7700,7 @@
     <t>Wasily</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 16 сек.</t>
+    <t>1 ч. 00 мин. 16 сек.</t>
   </si>
   <si>
     <t>862</t>
@@ -7709,7 +7709,7 @@
     <t>supertux_038</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 9 сек.</t>
+    <t>1 ч. 00 мин. 09 сек.</t>
   </si>
   <si>
     <t>863</t>
@@ -7718,7 +7718,7 @@
     <t>AllMo</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 1 сек.</t>
+    <t>1 ч. 00 мин. 01 сек.</t>
   </si>
   <si>
     <t>864</t>
@@ -7727,7 +7727,7 @@
     <t>Импульс</t>
   </si>
   <si>
-    <t>1 ч. 0 мин. 0 сек.</t>
+    <t>1 ч. 00 мин. 00 сек.</t>
   </si>
   <si>
     <t>865</t>
@@ -7790,7 +7790,7 @@
     <t>JohnDoe12</t>
   </si>
   <si>
-    <t>0 ч. 59 мин. 8 сек.</t>
+    <t>0 ч. 59 мин. 08 сек.</t>
   </si>
   <si>
     <t>872</t>
@@ -7799,7 +7799,7 @@
     <t>chp0ks</t>
   </si>
   <si>
-    <t>0 ч. 59 мин. 3 сек.</t>
+    <t>0 ч. 59 мин. 03 сек.</t>
   </si>
   <si>
     <t>873</t>
@@ -7871,7 +7871,7 @@
     <t>Brgl</t>
   </si>
   <si>
-    <t>0 ч. 58 мин. 6 сек.</t>
+    <t>0 ч. 58 мин. 06 сек.</t>
   </si>
   <si>
     <t>881</t>
@@ -7937,7 +7937,7 @@
     <t>getsomeweed</t>
   </si>
   <si>
-    <t>0 ч. 56 мин. 9 сек.</t>
+    <t>0 ч. 56 мин. 09 сек.</t>
   </si>
   <si>
     <t>889</t>
@@ -8012,7 +8012,7 @@
     <t>bronikkk</t>
   </si>
   <si>
-    <t>0 ч. 55 мин. 2 сек.</t>
+    <t>0 ч. 55 мин. 02 сек.</t>
   </si>
   <si>
     <t>898</t>
@@ -8084,7 +8084,7 @@
     <t>Эвольвента</t>
   </si>
   <si>
-    <t>0 ч. 54 мин. 6 сек.</t>
+    <t>0 ч. 54 мин. 06 сек.</t>
   </si>
   <si>
     <t>906</t>
@@ -8093,7 +8093,7 @@
     <t>potykk</t>
   </si>
   <si>
-    <t>0 ч. 54 мин. 5 сек.</t>
+    <t>0 ч. 54 мин. 05 сек.</t>
   </si>
   <si>
     <t>907</t>
@@ -8102,7 +8102,7 @@
     <t>vic0nt</t>
   </si>
   <si>
-    <t>0 ч. 54 мин. 3 сек.</t>
+    <t>0 ч. 54 мин. 03 сек.</t>
   </si>
   <si>
     <t>908</t>
@@ -8111,7 +8111,7 @@
     <t>SmartParkour</t>
   </si>
   <si>
-    <t>0 ч. 54 мин. 2 сек.</t>
+    <t>0 ч. 54 мин. 02 сек.</t>
   </si>
   <si>
     <t>909</t>
@@ -8174,7 +8174,7 @@
     <t>odto11</t>
   </si>
   <si>
-    <t>0 ч. 53 мин. 7 сек.</t>
+    <t>0 ч. 53 мин. 07 сек.</t>
   </si>
   <si>
     <t>916–917</t>
@@ -8183,7 +8183,7 @@
     <t>33000</t>
   </si>
   <si>
-    <t>0 ч. 53 мин. 6 сек.</t>
+    <t>0 ч. 53 мин. 06 сек.</t>
   </si>
   <si>
     <t>4bia</t>
@@ -8258,7 +8258,7 @@
     <t>Аромат</t>
   </si>
   <si>
-    <t>0 ч. 52 мин. 6 сек.</t>
+    <t>0 ч. 52 мин. 06 сек.</t>
   </si>
   <si>
     <t>926</t>
@@ -8303,7 +8303,7 @@
     <t>Preservoir</t>
   </si>
   <si>
-    <t>0 ч. 51 мин. 9 сек.</t>
+    <t>0 ч. 51 мин. 09 сек.</t>
   </si>
   <si>
     <t>Пани_Тыковка</t>
@@ -8411,7 +8411,7 @@
     <t>Wantnonick</t>
   </si>
   <si>
-    <t>0 ч. 50 мин. 9 сек.</t>
+    <t>0 ч. 50 мин. 09 сек.</t>
   </si>
   <si>
     <t>945</t>
@@ -8483,7 +8483,7 @@
     <t>KindOf</t>
   </si>
   <si>
-    <t>0 ч. 49 мин. 7 сек.</t>
+    <t>0 ч. 49 мин. 07 сек.</t>
   </si>
   <si>
     <t>953–954</t>
@@ -8549,7 +8549,7 @@
     <t>serega__</t>
   </si>
   <si>
-    <t>0 ч. 47 мин. 1 сек.</t>
+    <t>0 ч. 47 мин. 01 сек.</t>
   </si>
   <si>
     <t>961–962</t>
@@ -8633,7 +8633,7 @@
     <t>vrv1993</t>
   </si>
   <si>
-    <t>0 ч. 46 мин. 9 сек.</t>
+    <t>0 ч. 46 мин. 09 сек.</t>
   </si>
   <si>
     <t>971</t>
@@ -8642,7 +8642,7 @@
     <t>Alington</t>
   </si>
   <si>
-    <t>0 ч. 46 мин. 3 сек.</t>
+    <t>0 ч. 46 мин. 03 сек.</t>
   </si>
   <si>
     <t>972</t>
@@ -8651,7 +8651,7 @@
     <t>Alexanter-Its</t>
   </si>
   <si>
-    <t>0 ч. 46 мин. 2 сек.</t>
+    <t>0 ч. 46 мин. 02 сек.</t>
   </si>
   <si>
     <t>973</t>
@@ -8723,7 +8723,7 @@
     <t>Sesquipedalian</t>
   </si>
   <si>
-    <t>0 ч. 45 мин. 9 сек.</t>
+    <t>0 ч. 45 мин. 09 сек.</t>
   </si>
   <si>
     <t>981</t>
@@ -8732,7 +8732,7 @@
     <t>batkovich</t>
   </si>
   <si>
-    <t>0 ч. 45 мин. 8 сек.</t>
+    <t>0 ч. 45 мин. 08 сек.</t>
   </si>
   <si>
     <t>982</t>
@@ -8822,7 +8822,7 @@
     <t>Adygha</t>
   </si>
   <si>
-    <t>0 ч. 44 мин. 6 сек.</t>
+    <t>0 ч. 44 мин. 06 сек.</t>
   </si>
   <si>
     <t>992</t>
@@ -8831,7 +8831,7 @@
     <t>biznesman</t>
   </si>
   <si>
-    <t>0 ч. 44 мин. 2 сек.</t>
+    <t>0 ч. 44 мин. 02 сек.</t>
   </si>
   <si>
     <t>993</t>
@@ -8840,7 +8840,7 @@
     <t>Lena19</t>
   </si>
   <si>
-    <t>0 ч. 44 мин. 1 сек.</t>
+    <t>0 ч. 44 мин. 01 сек.</t>
   </si>
   <si>
     <t>994–995</t>
@@ -8915,7 +8915,7 @@
     <t>HudsonHorny</t>
   </si>
   <si>
-    <t>0 ч. 43 мин. 0 сек.</t>
+    <t>0 ч. 43 мин. 00 сек.</t>
   </si>
   <si>
     <t>1003</t>
@@ -8969,7 +8969,7 @@
     <t>kulinich</t>
   </si>
   <si>
-    <t>0 ч. 42 мин. 5 сек.</t>
+    <t>0 ч. 42 мин. 05 сек.</t>
   </si>
   <si>
     <t>1009</t>
@@ -8978,7 +8978,7 @@
     <t>MrFlag</t>
   </si>
   <si>
-    <t>0 ч. 42 мин. 0 сек.</t>
+    <t>0 ч. 42 мин. 00 сек.</t>
   </si>
   <si>
     <t>1010</t>
@@ -9044,7 +9044,7 @@
     <t>MMikhotov</t>
   </si>
   <si>
-    <t>0 ч. 41 мин. 6 сек.</t>
+    <t>0 ч. 41 мин. 06 сек.</t>
   </si>
   <si>
     <t>1018</t>
@@ -9128,7 +9128,7 @@
     <t>NDancer</t>
   </si>
   <si>
-    <t>0 ч. 40 мин. 6 сек.</t>
+    <t>0 ч. 40 мин. 06 сек.</t>
   </si>
   <si>
     <t>1028</t>
@@ -9137,7 +9137,7 @@
     <t>CroW1985</t>
   </si>
   <si>
-    <t>0 ч. 40 мин. 1 сек.</t>
+    <t>0 ч. 40 мин. 01 сек.</t>
   </si>
   <si>
     <t>1029</t>
@@ -9221,7 +9221,7 @@
     <t>shdw</t>
   </si>
   <si>
-    <t>0 ч. 39 мин. 4 сек.</t>
+    <t>0 ч. 39 мин. 04 сек.</t>
   </si>
   <si>
     <t>1039</t>
@@ -9230,7 +9230,7 @@
     <t>Русский_топор</t>
   </si>
   <si>
-    <t>0 ч. 39 мин. 3 сек.</t>
+    <t>0 ч. 39 мин. 03 сек.</t>
   </si>
   <si>
     <t>1040</t>
@@ -9284,7 +9284,7 @@
     <t>Gr1nch</t>
   </si>
   <si>
-    <t>0 ч. 38 мин. 7 сек.</t>
+    <t>0 ч. 38 мин. 07 сек.</t>
   </si>
   <si>
     <t>1046</t>
@@ -9293,7 +9293,7 @@
     <t>sneg_jr</t>
   </si>
   <si>
-    <t>0 ч. 38 мин. 3 сек.</t>
+    <t>0 ч. 38 мин. 03 сек.</t>
   </si>
   <si>
     <t>1047</t>
@@ -9401,7 +9401,7 @@
     <t>andreyusamo</t>
   </si>
   <si>
-    <t>0 ч. 36 мин. 7 сек.</t>
+    <t>0 ч. 36 мин. 07 сек.</t>
   </si>
   <si>
     <t>1059</t>
@@ -9410,7 +9410,7 @@
     <t>Ferris</t>
   </si>
   <si>
-    <t>0 ч. 36 мин. 5 сек.</t>
+    <t>0 ч. 36 мин. 05 сек.</t>
   </si>
   <si>
     <t>1060</t>
@@ -9419,7 +9419,7 @@
     <t>fedind</t>
   </si>
   <si>
-    <t>0 ч. 36 мин. 4 сек.</t>
+    <t>0 ч. 36 мин. 04 сек.</t>
   </si>
   <si>
     <t>1061–1062</t>
@@ -9512,7 +9512,7 @@
     <t>tenequm</t>
   </si>
   <si>
-    <t>0 ч. 35 мин. 6 сек.</t>
+    <t>0 ч. 35 мин. 06 сек.</t>
   </si>
   <si>
     <t>SpazZm</t>
@@ -9560,7 +9560,7 @@
     <t>anania2003</t>
   </si>
   <si>
-    <t>0 ч. 34 мин. 0 сек.</t>
+    <t>0 ч. 34 мин. 00 сек.</t>
   </si>
   <si>
     <t>1078</t>
@@ -9668,7 +9668,7 @@
     <t>Mish0k</t>
   </si>
   <si>
-    <t>0 ч. 32 мин. 7 сек.</t>
+    <t>0 ч. 32 мин. 07 сек.</t>
   </si>
   <si>
     <t>1090</t>
@@ -9677,7 +9677,7 @@
     <t>Symbo</t>
   </si>
   <si>
-    <t>0 ч. 32 мин. 4 сек.</t>
+    <t>0 ч. 32 мин. 04 сек.</t>
   </si>
   <si>
     <t>1091</t>
@@ -9749,7 +9749,7 @@
     <t>AlexUnder</t>
   </si>
   <si>
-    <t>0 ч. 31 мин. 4 сек.</t>
+    <t>0 ч. 31 мин. 04 сек.</t>
   </si>
   <si>
     <t>1099</t>
@@ -9758,7 +9758,7 @@
     <t>Vielle</t>
   </si>
   <si>
-    <t>0 ч. 31 мин. 0 сек.</t>
+    <t>0 ч. 31 мин. 00 сек.</t>
   </si>
   <si>
     <t>1100</t>
@@ -9911,7 +9911,7 @@
     <t>кляпавций</t>
   </si>
   <si>
-    <t>0 ч. 28 мин. 3 сек.</t>
+    <t>0 ч. 28 мин. 03 сек.</t>
   </si>
   <si>
     <t>1117</t>
@@ -9956,7 +9956,7 @@
     <t>mynque</t>
   </si>
   <si>
-    <t>0 ч. 25 мин. 9 сек.</t>
+    <t>0 ч. 25 мин. 09 сек.</t>
   </si>
   <si>
     <t>1122</t>
@@ -10028,7 +10028,7 @@
     <t>chikaldirick</t>
   </si>
   <si>
-    <t>0 ч. 20 мин. 4 сек.</t>
+    <t>0 ч. 20 мин. 04 сек.</t>
   </si>
 </sst>
 </file>
